--- a/Team-Data/2014-15/11-27-2014-15.xlsx
+++ b/Team-Data/2014-15/11-27-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -759,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -795,7 +862,7 @@
         <v>27</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
         <v>15</v>
@@ -807,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -950,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>10</v>
@@ -965,10 +1032,10 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-0.4</v>
       </c>
       <c r="AD4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE4" t="n">
         <v>19</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1129,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1138,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
@@ -1150,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>10</v>
@@ -1159,7 +1226,7 @@
         <v>19</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-6.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
         <v>24</v>
@@ -1317,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>24</v>
@@ -1338,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="AT5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
         <v>15</v>
@@ -1353,13 +1420,13 @@
         <v>24</v>
       </c>
       <c r="AY5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>26</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>1.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,13 +1551,13 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
@@ -1508,7 +1575,7 @@
         <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
         <v>18</v>
@@ -1523,7 +1590,7 @@
         <v>18</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>12</v>
@@ -1532,10 +1599,10 @@
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>3.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1663,13 +1730,13 @@
         <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
@@ -1687,10 +1754,10 @@
         <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>7</v>
@@ -1699,13 +1766,13 @@
         <v>17</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1726,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.733</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>85.5</v>
+        <v>85</v>
       </c>
       <c r="K8" t="n">
         <v>0.483</v>
       </c>
       <c r="L8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M8" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
       <c r="O8" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.771</v>
+        <v>0.774</v>
       </c>
       <c r="R8" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>31.4</v>
+        <v>30.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.7</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="V8" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="W8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X8" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>3.3</v>
@@ -1827,85 +1894,85 @@
         <v>20.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.9</v>
+        <v>109.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.2</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM8" t="n">
         <v>2</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2030,16 +2097,16 @@
         <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
@@ -2048,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
@@ -2066,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>18</v>
@@ -2078,7 +2145,7 @@
         <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
@@ -2230,19 +2297,19 @@
         <v>12</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>9</v>
@@ -2260,7 +2327,7 @@
         <v>28</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
         <v>12</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>3</v>
@@ -2415,13 +2482,13 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR11" t="n">
         <v>28</v>
@@ -2430,19 +2497,19 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>2</v>
       </c>
       <c r="AV11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW11" t="n">
         <v>9</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.786</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="J12" t="n">
-        <v>78.90000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.422</v>
@@ -2513,67 +2580,67 @@
         <v>12.1</v>
       </c>
       <c r="M12" t="n">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>18.7</v>
       </c>
       <c r="P12" t="n">
-        <v>25.1</v>
+        <v>26.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.699</v>
+        <v>0.697</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S12" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T12" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="V12" t="n">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="W12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>22.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2582,7 +2649,7 @@
         <v>30</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2594,49 +2661,49 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>-2.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>21</v>
@@ -2758,7 +2825,7 @@
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2776,7 +2843,7 @@
         <v>13</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2806,7 +2873,7 @@
         <v>30</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>21</v>
@@ -2815,7 +2882,7 @@
         <v>10</v>
       </c>
       <c r="BA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>3</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2943,10 +3010,10 @@
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2961,19 +3028,19 @@
         <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>30</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT14" t="n">
         <v>29</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -3032,106 +3099,106 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="H15" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>85.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.444</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M15" t="n">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="N15" t="n">
         <v>0.299</v>
       </c>
       <c r="O15" t="n">
-        <v>20.7</v>
+        <v>21.4</v>
       </c>
       <c r="P15" t="n">
-        <v>27.7</v>
+        <v>28.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.747</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S15" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="T15" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="V15" t="n">
         <v>12.6</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.6</v>
+        <v>23.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.9</v>
+        <v>23.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.2</v>
+        <v>101.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3143,46 +3210,46 @@
         <v>29</v>
       </c>
       <c r="AO15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU15" t="n">
         <v>26</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>25</v>
       </c>
       <c r="AV15" t="n">
         <v>6</v>
       </c>
       <c r="AW15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
         <v>6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
@@ -3334,13 +3401,13 @@
         <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
         <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>14</v>
@@ -3352,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="AX16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
@@ -3361,7 +3428,7 @@
         <v>5</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>14</v>
@@ -3483,7 +3550,7 @@
         <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
         <v>19</v>
@@ -3513,13 +3580,13 @@
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3546,7 +3613,7 @@
         <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
@@ -3671,13 +3738,13 @@
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3695,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3713,13 +3780,13 @@
         <v>27</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
         <v>17</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
@@ -3853,7 +3920,7 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
         <v>6</v>
@@ -3880,13 +3947,13 @@
         <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU19" t="n">
         <v>20</v>
@@ -3901,13 +3968,13 @@
         <v>25</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>16</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -3942,94 +4009,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.538</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J20" t="n">
-        <v>84.5</v>
+        <v>85.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.464</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.353</v>
+        <v>0.345</v>
       </c>
       <c r="O20" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>23.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.743</v>
       </c>
       <c r="R20" t="n">
-        <v>10.6</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="T20" t="n">
-        <v>40.7</v>
+        <v>42.3</v>
       </c>
       <c r="U20" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V20" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>19</v>
@@ -4038,64 +4105,64 @@
         <v>5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
         <v>15</v>
       </c>
-      <c r="AO20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>1</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -4202,28 +4269,28 @@
         <v>-4.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
         <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ21" t="n">
         <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL21" t="n">
         <v>15</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4256,13 +4323,13 @@
         <v>13</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4271,7 +4338,7 @@
         <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -4384,31 +4451,31 @@
         <v>-4.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
         <v>24</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>28</v>
       </c>
       <c r="AJ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
         <v>28</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
@@ -4426,7 +4493,7 @@
         <v>27</v>
       </c>
       <c r="AR22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS22" t="n">
         <v>8</v>
@@ -4450,7 +4517,7 @@
         <v>20</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
         <v>24</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>0.375</v>
+        <v>0.353</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M23" t="n">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O23" t="n">
         <v>14.9</v>
@@ -4527,73 +4594,73 @@
         <v>20.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.715</v>
+        <v>0.718</v>
       </c>
       <c r="R23" t="n">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W23" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X23" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.7</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN23" t="n">
         <v>6</v>
@@ -4614,34 +4681,34 @@
         <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>25</v>
       </c>
       <c r="AX23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY23" t="n">
         <v>30</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>29</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-15.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>7</v>
@@ -4951,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -4978,13 +5045,13 @@
         <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU25" t="n">
         <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW25" t="n">
         <v>12</v>
@@ -4999,7 +5066,7 @@
         <v>28</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV26" t="n">
         <v>13</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>2</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF27" t="n">
         <v>10</v>
@@ -5312,7 +5379,7 @@
         <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK27" t="n">
         <v>20</v>
@@ -5336,7 +5403,7 @@
         <v>2</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
         <v>4</v>
@@ -5357,7 +5424,7 @@
         <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>26</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -5398,94 +5465,94 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J28" t="n">
-        <v>80.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.455</v>
+        <v>0.459</v>
       </c>
       <c r="L28" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.333</v>
+        <v>0.349</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.5</v>
+        <v>22.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R28" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="T28" t="n">
-        <v>44.8</v>
+        <v>44.3</v>
       </c>
       <c r="U28" t="n">
         <v>23.5</v>
       </c>
       <c r="V28" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
         <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
         <v>19</v>
@@ -5494,28 +5561,28 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AM28" t="n">
         <v>18</v>
       </c>
       <c r="AN28" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5524,22 +5591,22 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>11.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>1</v>
@@ -5673,7 +5740,7 @@
         <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
@@ -5709,7 +5776,7 @@
         <v>25</v>
       </c>
       <c r="AU29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-5.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>23</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL30" t="n">
         <v>22</v>
@@ -5873,22 +5940,22 @@
         <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU30" t="n">
         <v>16</v>
@@ -5912,11 +5979,11 @@
         <v>26</v>
       </c>
       <c r="BB30" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC30" t="n">
         <v>24</v>
       </c>
-      <c r="BC30" t="n">
-        <v>25</v>
-      </c>
       <c r="BD30" t="n">
         <v>10</v>
       </c>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
         <v>8</v>
@@ -6037,13 +6104,13 @@
         <v>8</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ31" t="n">
         <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6055,7 +6122,7 @@
         <v>8</v>
       </c>
       <c r="AO31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP31" t="n">
         <v>14</v>
@@ -6070,7 +6137,7 @@
         <v>16</v>
       </c>
       <c r="AT31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>3</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-27-2014-15</t>
+          <t>2014-11-27</t>
         </is>
       </c>
     </row>
